--- a/guide41_feedback.xlsx
+++ b/guide41_feedback.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04092219-A02D-402A-90D7-A153DCE9C8D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B48C3AF-CB05-4CC1-8C3B-8D5966134479}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="p1" sheetId="16" r:id="rId1"/>
+    <sheet name="index" sheetId="17" r:id="rId1"/>
+    <sheet name="p1" sheetId="16" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>header1</t>
   </si>
@@ -263,12 +264,34 @@
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _フィードバック</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;フィードバック&lt;/h3&gt;&lt;br&gt;
+moodle 上でアンケートを行う時に使用します。
+フィードバックの作成方法は小テストに似ています。最初にフィードバックの動作設定を行い、その後に質問を登録します。&lt;br &gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +360,13 @@
       <name val="Calibri"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +426,13 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,11 +747,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012FCAC9-8C70-40D8-966C-B8E6C4097B83}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="67.5">
+      <c r="B6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -966,24 +1066,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1232,7 +1314,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1241,18 +1323,25 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1271,10 +1360,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_feedback.xlsx
+++ b/guide41_feedback.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B48C3AF-CB05-4CC1-8C3B-8D5966134479}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999CA763-320B-4985-B7C2-298C09E22625}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="17" r:id="rId1"/>
     <sheet name="p1" sheetId="16" r:id="rId2"/>
+    <sheet name="p2" sheetId="19" r:id="rId3"/>
+    <sheet name="p3" sheetId="20" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>header1</t>
   </si>
@@ -52,9 +54,6 @@
     <t>フィードバック</t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="Create"&gt;&lt;/a&gt;フィードバックの作成&lt;/h3&gt;</t>
-  </si>
-  <si>
     <t>フィードバックを作成したいセクションの［+ 活動またはリソースを追加する］をクリックします</t>
   </si>
   <si>
@@ -64,22 +63,10 @@
     <t>必要な項目を入力後［保存してコースに戻る］ボタンをクリックします</t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="registration"&gt;&lt;/a&gt;質問の登録&lt;/h3&gt;
-ここでは多肢選択の質問作成を例に説明します。</t>
-  </si>
-  <si>
     <t>質問を編集するタブをクリックします</t>
   </si>
   <si>
     <t>設定完了後、［質問を保存する］をクリックします</t>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="confirm"&gt;&lt;/a&gt;回答の確認&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t>moodle 上でアンケートを行う時に使用します。
-フィードバックの作成方法は小テストに似ています。最初にフィードバックの動作設定を行い、その後に質問を登録します。</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>利用期間を設定します
@@ -284,6 +271,19 @@
     <t>&lt;h3&gt;フィードバック&lt;/h3&gt;&lt;br&gt;
 moodle 上でアンケートを行う時に使用します。
 フィードバックの作成方法は小テストに似ています。最初にフィードバックの動作設定を行い、その後に質問を登録します。&lt;br &gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードバックの作成</t>
+  </si>
+  <si>
+    <t>質問の登録</t>
+  </si>
+  <si>
+    <t>回答の確認</t>
+  </si>
+  <si>
+    <t>ここでは多肢選択の質問作成を例に説明します。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -751,7 +751,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -781,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -791,12 +791,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="B6" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -811,10 +811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -859,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -870,193 +870,313 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="40.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5">
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="81">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="54">
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="D14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27089283-62D6-450E-A5E1-D8215D284C20}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="90" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="67.5">
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="67.5">
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
-      <c r="B11" s="7" t="s">
-        <v>6</v>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="54">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="81">
-      <c r="B13" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:4" ht="54">
-      <c r="B14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="B15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="27">
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="2:4" ht="18.75">
-      <c r="B17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="18.75">
-      <c r="B18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="67.5">
-      <c r="B19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="11" t="s">
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="D13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBB467B-C2B7-4C73-AB5C-CC658E4C0A3A}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="90" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="40.5">
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="67.5">
-      <c r="B20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18.75">
-      <c r="B21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="11" t="s">
+    <row r="7" spans="1:4" ht="88.5">
+      <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="54">
-      <c r="B22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18.75">
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="2:4" ht="40.5">
-      <c r="B24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="88.5">
-      <c r="B25" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="18.75">
-      <c r="D26" s="1"/>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1066,6 +1186,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1314,15 +1443,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1342,6 +1462,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1360,14 +1488,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41_feedback.xlsx
+++ b/guide41_feedback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999CA763-320B-4985-B7C2-298C09E22625}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B0E06E-C56E-4819-9DA2-11C6804E4DA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="17" r:id="rId1"/>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012FCAC9-8C70-40D8-966C-B8E6C4097B83}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -811,146 +811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="90" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="40.5">
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="81">
-      <c r="B11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="54">
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75">
-      <c r="D14" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27089283-62D6-450E-A5E1-D8215D284C20}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -978,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -1003,87 +864,88 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="B6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="11"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="67.5">
-      <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="67.5">
-      <c r="B10" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="40.5">
       <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="81">
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" ht="54">
+      <c r="B13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="54">
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="D13" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="B14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
-      <c r="D13" s="1"/>
+      <c r="D14" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1092,12 +954,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBB467B-C2B7-4C73-AB5C-CC658E4C0A3A}">
-  <dimension ref="A1:D8"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27089283-62D6-450E-A5E1-D8215D284C20}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1122,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -1147,36 +1009,192 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="40.5">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="67.5">
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="67.5">
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="54">
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="D14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBB467B-C2B7-4C73-AB5C-CC658E4C0A3A}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="90" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="40.5">
+      <c r="B7" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="88.5">
-      <c r="B7" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="88.5">
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="D8" s="1"/>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1186,12 +1204,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1444,27 +1471,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1489,12 +1510,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_feedback.xlsx
+++ b/guide41_feedback.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B0E06E-C56E-4819-9DA2-11C6804E4DA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4EF0E1-D5E2-48FB-8438-C2BD427D81E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="17" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>header1</t>
   </si>
@@ -48,58 +48,7 @@
     <t>編集モードを開始します</t>
   </si>
   <si>
-    <t>［名称］と必要であれば［説明］を入力します</t>
-  </si>
-  <si>
     <t>フィードバック</t>
-  </si>
-  <si>
-    <t>フィードバックを作成したいセクションの［+ 活動またはリソースを追加する］をクリックします</t>
-  </si>
-  <si>
-    <t>ダイアログから［フィードバック］を選択します</t>
-  </si>
-  <si>
-    <t>必要な項目を入力後［保存してコースに戻る］ボタンをクリックします</t>
-  </si>
-  <si>
-    <t>質問を編集するタブをクリックします</t>
-  </si>
-  <si>
-    <t>設定完了後、［質問を保存する］をクリックします</t>
-  </si>
-  <si>
-    <t>利用期間を設定します
-フィードバックの開始、終了日時を設定できます。設定する場合は「Yes」にチェックをいれてください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問および回答設定を設定します
-ユーザ名を記録する：アンケートを匿名にすることができます。その場合プルダウンで「匿名」を選択します。回答開始後には変更できません。
-複数回答を許可する：ユーザ名を匿名にした場合、無制限で回答を送信することができます。
-送信通知を有効にする：「Yes」にした場合、回答後メールで教員に通知が届きます。
-問題の自動番号付け：「Yes」にした場合、自動にナンバリングされます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回答送信後の設定をします
-分析ページを表示する：「Yes」にした場合、学生に分析ページが表示されます。
-完了メッセージ：アンケート送信後に表示させたいメッセージがある場合、入力します。
-次の活動にリンクする：URL を設定することで他の活動にリンクすることができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問内容を入力します
-表示方法：選択肢の並べ方を垂直／水平のいずれかで選択します。
-「未選択オプション」を隠す：「未選択」の選択肢の可否を設定します。「No」にした場合、選択肢に「未選択」が含まれます。
-多肢選択値：選択肢を入力します。1 行に 1 つの回答を入力します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問を追加する場合は、「質問を追加する」のプルダウンから選択し、追加します
-※ 質問内容は編集にて変更することは可能ですが、質問タイプは変更することが出来ません。質問タイプを変更したい場合は、削除して新たに質問を作成する必要があります。
-※ 学生には以下のように表示されます。</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>chartn</t>
@@ -119,39 +68,6 @@
     <t>feedback4.png</t>
   </si>
   <si>
-    <t>多肢選択：回答方式について３つの選択肢があります。
-多肢選択（評定）：評定(数値)を設定することにより、平均値等の測定が可能になります。
-数値回答：範囲（0-10）を設定することができます。
-短文回答：テキストを入力するボックスを設定します。
-長文回答：テキストを入力するボックスを設定します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>質問を追加するの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>▼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をクリックし、［多肢選択］を選びます</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>feedback5.png</t>
   </si>
   <si>
@@ -171,75 +87,6 @@
   </si>
   <si>
     <t>feedback11.png</t>
-  </si>
-  <si>
-    <t>フィードバックをクリックすると、学生からの回答を確認できます。
-概要に回答した人数が表示されています。［回答を表示する］タブをクリックすると回答者ごとの回答を見ることができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>匿名でアンケートを作成した場合は、上記のように氏名等は表示されません。ここで［テーブルデータをダウンロードする］の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>▼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をクリックして形式を選ぶと、回答をダウンロードすることができます。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>また［分析］タブをクリックすると解答の分析結果を参照できます。分析結果は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Excel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>形式でのみエクスポートができます。</t>
-    </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>feedback12.png</t>
@@ -284,6 +131,772 @@
   </si>
   <si>
     <t>ここでは多肢選択の質問作成を例に説明します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードバックを作成したいセクションの[+ 活動またはリソースを追加する]をクリックします</t>
+  </si>
+  <si>
+    <t>ダイアログから[フィードバック]を選択します</t>
+  </si>
+  <si>
+    <t>[名称]と必要であれば[説明]を入力します</t>
+  </si>
+  <si>
+    <r>
+      <t>[利用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]から、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">フィードバックの開始、終了日時を設定できます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>設定する場合は「Yes」にチェックをいれてください</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>質問および回答設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]では、アンケートを匿名でとるかや、複数回答を許可するか等を設定します
+詳しくは以下のとおりです
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ユーザ名を記録する：「匿名」を選択するとアンケートを匿名にできます
+　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回答開始後には変更できません
+・複数回答を許可する：ユーザ名を匿名にした場合、無制限で回答を送信することができます
+・送信通知を有効にする：「Yes」にした場合、回答後メールで教員に通知が届きます
+・問題の自動番号付け：「Yes」にした場合、自動にナンバリングされます</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>フクスウカイトウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>トクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>回答送信後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の設定をします
+・分析ページを表示する：「Yes」にした場合、学生に右図のような分析ページが表示されます
+・完了メッセージ：アンケート送信後に表示させたいメッセージがある場合、入力します
+・次の活動にリンクする：フィードバック送信後、デフォルトではコースページにリンクされる「続ける」ボタンが表示されます
+　ここでは「活動」のURL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を入力することができ、入力した場合、次の活動へリンクさせることができます</t>
+    </r>
+    <rPh sb="42" eb="44">
+      <t>ミギズ</t>
+    </rPh>
+    <rPh sb="121" eb="124">
+      <t>ソウシンゴ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>質問を編集する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックします</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">その他、必要な項目を入力後、[保存して表示する]ボタンをクリックすると右図の画面が表示されます
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+※マニュアルの[次の章へ&gt;&gt;]をクリックし、質問の登録を行います</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ミギズ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>質問を追加する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の右にある</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[選択…]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をクリックし、例では［多肢選択］を選びます
+多肢選択では、回答方式について３つの選択肢があります（後述）
+その他の主要な選択肢の説明は以下のとおりです
+・多肢選択（評定）：評定(数値)を設定することにより、平均値等の測定が可能になります
+・数値回答：範囲（0-10）を設定することができます
+・短文回答：テキストを入力するボックスを設定します
+・長文回答：テキストを入力するボックスを設定します</t>
+    </r>
+    <rPh sb="10" eb="11">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>コウジュツ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>シュヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[多肢選択タイプ]でアンケートの回答方式（単一回答か複数回答可か、ドロップダウンから選択させるか）を選択します</t>
+    <rPh sb="1" eb="3">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホウシキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>フクスウカイトウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[質問]で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">質問内容を入力し、
+[多肢選択値]で選択肢を入力します
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">1 行に 1 つの回答を入力します
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+以下は必要に応じて設定します
+・[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表示方向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">選択肢の並べ方を垂直／水平のいずれかを選択します
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「未選択オプション」を隠す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]：回答者に[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>未選択</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">を許すか設定します
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「No」にした場合、選択肢に「未選択」が含まれます</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ユル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定完了後、［変更を保存する］をクリックします</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="regist"&gt;&lt;/a&gt;フィードバックに質問を登録する&lt;/h3&gt;</t>
+    <rPh sb="33" eb="35">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="add"&gt;&lt;/a&gt;フィードバックに質問を追加する&lt;/h3&gt;</t>
+    <rPh sb="30" eb="32">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">質問を追加する場合は、「質問を追加する」のプルダウンから選択し、追加します
+※質問内容は編集にて変更することは可能ですが、質問タイプは変更することが出来ません
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>質問タイプを変更したい場合は、削除して新たに質問を作成する必要があります
+※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フィードバックは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学生には</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>右図</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のように表示されます</t>
+    </r>
+    <rPh sb="132" eb="134">
+      <t>ミギズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[回答]で学生からの回答を確認することができます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[回答]をクリックすると回答者ごとの回答を見ることができます
+匿名でアンケートを作成した場合は、右図のように氏名等は表示されません
+ここで[テーブルデータをダウンロードする]の右横の選択肢をクリックして形式を選ぶと、回答をダウンロードすることができます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また[分析]タブをクリックすると解答の分析結果を参照できます
+分析結果は Excel 形式でのみエクスポートができます</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -291,7 +904,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,21 +957,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -366,6 +967,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -390,7 +998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,17 +1029,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -773,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -781,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -791,12 +1405,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="67.5">
       <c r="B6" s="13" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -814,6 +1428,151 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="90" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7"/>
+    <col min="4" max="4" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32.25">
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4" ht="129">
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" ht="123.75">
+      <c r="B13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="64.5">
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="D15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27089283-62D6-450E-A5E1-D8215D284C20}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -839,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -859,14 +1618,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="5" spans="1:4">
       <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
@@ -876,76 +1637,95 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="B7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="7" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="126.75">
+      <c r="B10" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="40.5">
-      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" ht="81">
+    </row>
+    <row r="11" spans="1:4" ht="37.5">
+      <c r="B11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="139.5">
       <c r="B12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:4" ht="54">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
-      <c r="B14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="D15" s="1"/>
+      <c r="B14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" ht="78">
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -954,12 +1734,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27089283-62D6-450E-A5E1-D8215D284C20}">
-  <dimension ref="A1:D14"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBB467B-C2B7-4C73-AB5C-CC658E4C0A3A}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -984,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -1004,197 +1784,55 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="7" t="s">
-        <v>11</v>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="67.5">
+      <c r="B8" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
+    </row>
+    <row r="9" spans="1:4" ht="40.5">
       <c r="B9" s="8" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="67.5">
-      <c r="B10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="67.5">
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="54">
-      <c r="B13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75">
-      <c r="D14" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBB467B-C2B7-4C73-AB5C-CC658E4C0A3A}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="90" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9" style="7"/>
-    <col min="4" max="4" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="40.5">
-      <c r="B7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="88.5">
-      <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="D9" s="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1204,21 +1842,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1471,21 +2100,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1510,9 +2145,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/guide41_feedback.xlsx
+++ b/guide41_feedback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4EF0E1-D5E2-48FB-8438-C2BD427D81E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB8D43F-122F-459C-9F9B-D91C0A50E930}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="17" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>header1</t>
   </si>
@@ -813,78 +813,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">質問を追加する場合は、「質問を追加する」のプルダウンから選択し、追加します
-※質問内容は編集にて変更することは可能ですが、質問タイプは変更することが出来ません
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>質問タイプを変更したい場合は、削除して新たに質問を作成する必要があります
-※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>フィードバックは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>学生には</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>右図</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のように表示されます</t>
-    </r>
-    <rPh sb="132" eb="134">
-      <t>ミギズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[回答]で学生からの回答を確認することができます</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -897,6 +825,64 @@
   <si>
     <t>また[分析]タブをクリックすると解答の分析結果を参照できます
 分析結果は Excel 形式でのみエクスポートができます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feedback13.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feedback14.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フィードバックは学生には右図のように表示されます</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">質問を追加する場合は、「質問を追加する」のプルダウンから選択し、追加します
+※質問内容は編集にて変更することは可能ですが、質問タイプは変更することが出来ません
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>質問タイプを変更したい場合は、削除して新たに質問を作成する必要があります</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -904,7 +890,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -975,6 +961,13 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS UI Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -998,7 +991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,6 +1040,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1528,13 +1524,23 @@
       <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="C11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="129">
       <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="C12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="123.75">
       <c r="B13" s="8" t="s">
@@ -1572,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27089283-62D6-450E-A5E1-D8215D284C20}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1699,12 +1705,8 @@
       <c r="B13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="16" t="s">
@@ -1713,19 +1715,27 @@
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="1:4" ht="78">
+    <row r="15" spans="1:4" ht="59.25">
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="B16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
-      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1738,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBB467B-C2B7-4C73-AB5C-CC658E4C0A3A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1792,7 +1802,7 @@
     <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1811,7 +1821,7 @@
     </row>
     <row r="8" spans="1:4" ht="67.5">
       <c r="B8" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>7</v>
@@ -1822,7 +1832,7 @@
     </row>
     <row r="9" spans="1:4" ht="40.5">
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -1842,15 +1852,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2099,6 +2100,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2118,14 +2128,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2144,6 +2146,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41_feedback.xlsx
+++ b/guide41_feedback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB8D43F-122F-459C-9F9B-D91C0A50E930}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFD5B4F-8B51-4BD6-B11E-4B941021197E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="17" r:id="rId1"/>
@@ -823,11 +823,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>また[分析]タブをクリックすると解答の分析結果を参照できます
-分析結果は Excel 形式でのみエクスポートができます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>feedback13.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -883,6 +878,14 @@
       </rPr>
       <t>質問タイプを変更したい場合は、削除して新たに質問を作成する必要があります</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また[分析]タブをクリックすると回答の分析結果を参照できます
+分析結果は Excel 形式でのみエクスポートができます</t>
+    <rPh sb="16" eb="18">
+      <t>カイトウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1528,7 +1531,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="129">
@@ -1539,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="123.75">
@@ -1578,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27089283-62D6-450E-A5E1-D8215D284C20}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1717,7 +1720,7 @@
     </row>
     <row r="15" spans="1:4" ht="59.25">
       <c r="B15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>7</v>
@@ -1728,7 +1731,7 @@
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>7</v>
@@ -1748,8 +1751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBB467B-C2B7-4C73-AB5C-CC658E4C0A3A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1832,7 +1835,7 @@
     </row>
     <row r="9" spans="1:4" ht="40.5">
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -1852,6 +1855,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2100,15 +2112,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2128,6 +2131,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2146,14 +2157,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41_feedback.xlsx
+++ b/guide41_feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFD5B4F-8B51-4BD6-B11E-4B941021197E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAA24CC-E431-476C-A8D6-93FAE2CE14F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -121,15 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フィードバックの作成</t>
-  </si>
-  <si>
-    <t>質問の登録</t>
-  </si>
-  <si>
-    <t>回答の確認</t>
-  </si>
-  <si>
     <t>ここでは多肢選択の質問作成を例に説明します。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -887,6 +878,15 @@
       <t>カイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンケートを作成する:フィードバック</t>
+  </si>
+  <si>
+    <t>質問を登録する</t>
+  </si>
+  <si>
+    <t>学生からの回答を確認する</t>
   </si>
 </sst>
 </file>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5F1CFD-792A-40F7-A551-A5197A9AF048}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -1498,12 +1498,12 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>7</v>
@@ -1525,29 +1525,29 @@
     </row>
     <row r="11" spans="1:4" ht="32.25">
       <c r="B11" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="129">
       <c r="B12" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="123.75">
       <c r="B13" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>7</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="14" spans="1:4" ht="64.5">
       <c r="B14" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>7</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -1635,7 +1635,7 @@
     <row r="5" spans="1:4">
       <c r="A5" s="4"/>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1655,14 +1655,14 @@
     <row r="8" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="10" spans="1:4" ht="126.75">
       <c r="B10" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>7</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="11" spans="1:4" ht="37.5">
       <c r="B11" s="15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>7</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="12" spans="1:4" ht="139.5">
       <c r="B12" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>7</v>
@@ -1706,21 +1706,21 @@
     </row>
     <row r="13" spans="1:4" ht="18.75">
       <c r="B13" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="B14" s="16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="59.25">
       <c r="B15" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>7</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="16" spans="1:4" ht="18.75">
       <c r="B16" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>7</v>
@@ -1752,7 +1752,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="9"/>
@@ -1805,7 +1805,7 @@
     <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="8" spans="1:4" ht="67.5">
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>7</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="9" spans="1:4" ht="40.5">
       <c r="B9" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -1855,15 +1855,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2112,6 +2103,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2131,14 +2131,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2157,6 +2149,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
